--- a/data/filter_conditions.xlsx
+++ b/data/filter_conditions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangq\Documents\VSCode\IPTV_AutoMation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4AFD87-2636-4C42-A096-4D1E8CEAE2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004FE2A2-E28B-48BC-9F93-8D155805C79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D16219B1-5F24-4FB3-9502-E77BE7AD7ECA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="2298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4030" uniqueCount="2302">
   <si>
     <t>CCTV2</t>
   </si>
@@ -8112,6 +8112,21 @@
   </si>
   <si>
     <t>湖南</t>
+  </si>
+  <si>
+    <t>安多卫视</t>
+  </si>
+  <si>
+    <t>安多卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adws</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8532,8 +8547,8 @@
   <dimension ref="A1:F2398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A991" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1005" sqref="E1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26656,8 +26671,23 @@
       </c>
       <c r="F1006" s="5"/>
     </row>
-    <row r="1007" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C1007" s="2"/>
+    <row r="1007" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1007" s="3" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B1007" s="3" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C1007" s="5" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D1007" s="3" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E1007" s="5">
+        <v>1006</v>
+      </c>
+      <c r="F1007" s="5"/>
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1008" s="2"/>
